--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N2">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O2">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P2">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q2">
-        <v>3.285210871855333</v>
+        <v>3.616767251128334</v>
       </c>
       <c r="R2">
-        <v>29.56689784669801</v>
+        <v>32.550905260155</v>
       </c>
       <c r="S2">
-        <v>0.02373979161999006</v>
+        <v>0.02390408243948202</v>
       </c>
       <c r="T2">
-        <v>0.02373979161999006</v>
+        <v>0.02390408243948203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>6.464219</v>
       </c>
       <c r="O3">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P3">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q3">
         <v>0.3445435909465556</v>
@@ -632,10 +632,10 @@
         <v>3.100892318519</v>
       </c>
       <c r="S3">
-        <v>0.002489761958097679</v>
+        <v>0.002277171249936591</v>
       </c>
       <c r="T3">
-        <v>0.002489761958097681</v>
+        <v>0.002277171249936592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N4">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O4">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P4">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q4">
-        <v>0.03434222099088888</v>
+        <v>0.04485625420877778</v>
       </c>
       <c r="R4">
-        <v>0.309079988918</v>
+        <v>0.403706287879</v>
       </c>
       <c r="S4">
-        <v>0.0002481658565895711</v>
+        <v>0.0002964657452586904</v>
       </c>
       <c r="T4">
-        <v>0.0002481658565895711</v>
+        <v>0.0002964657452586905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.545366</v>
+        <v>22.618885</v>
       </c>
       <c r="N5">
-        <v>61.636098</v>
+        <v>67.856655</v>
       </c>
       <c r="O5">
-        <v>0.8965950288338865</v>
+        <v>0.9027998993061069</v>
       </c>
       <c r="P5">
-        <v>0.8965950288338865</v>
+        <v>0.902799899306107</v>
       </c>
       <c r="Q5">
-        <v>120.789329609632</v>
+        <v>132.97986298552</v>
       </c>
       <c r="R5">
-        <v>1087.103966486688</v>
+        <v>1196.81876686968</v>
       </c>
       <c r="S5">
-        <v>0.8728552372138965</v>
+        <v>0.8788958168666249</v>
       </c>
       <c r="T5">
-        <v>0.8728552372138966</v>
+        <v>0.8788958168666251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>6.464219</v>
       </c>
       <c r="O6">
-        <v>0.09403234157836461</v>
+        <v>0.08600330007856447</v>
       </c>
       <c r="P6">
-        <v>0.09403234157836463</v>
+        <v>0.08600330007856449</v>
       </c>
       <c r="Q6">
         <v>12.66804202076267</v>
@@ -818,10 +818,10 @@
         <v>114.012378186864</v>
       </c>
       <c r="S6">
-        <v>0.09154257962026692</v>
+        <v>0.08372612882862787</v>
       </c>
       <c r="T6">
-        <v>0.09154257962026695</v>
+        <v>0.08372612882862791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2147726666666666</v>
+        <v>0.2805263333333333</v>
       </c>
       <c r="N7">
-        <v>0.6443179999999999</v>
+        <v>0.841579</v>
       </c>
       <c r="O7">
-        <v>0.009372629587748919</v>
+        <v>0.0111968006153285</v>
       </c>
       <c r="P7">
-        <v>0.009372629587748919</v>
+        <v>0.01119680061532851</v>
       </c>
       <c r="Q7">
-        <v>1.262681152778667</v>
+        <v>1.649256953669333</v>
       </c>
       <c r="R7">
-        <v>11.364130375008</v>
+        <v>14.843312583024</v>
       </c>
       <c r="S7">
-        <v>0.009124463731159348</v>
+        <v>0.01090033487006981</v>
       </c>
       <c r="T7">
-        <v>0.009124463731159349</v>
+        <v>0.01090033487006982</v>
       </c>
     </row>
   </sheetData>
